--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF87A16-9CD1-4160-9A22-E3762A9EC336}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0727AF6-FB06-43CF-9EB4-57DDAD5F57CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -765,7 +765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="O21" s="3">
-        <v>229.43</v>
+        <v>229.35</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0727AF6-FB06-43CF-9EB4-57DDAD5F57CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994E650-F0BB-4E20-88A7-D5CA8724F738}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -765,7 +765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994E650-F0BB-4E20-88A7-D5CA8724F738}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5447856A-D795-45A1-9B35-CE21F4574446}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>Топографічна карта це ...</t>
   </si>
@@ -299,36 +299,6 @@
   </si>
   <si>
     <t>Option 10</t>
-  </si>
-  <si>
-    <t>Як приготувати каву?</t>
-  </si>
-  <si>
-    <t>Налити води у чайник</t>
-  </si>
-  <si>
-    <t>Закипьятити чайник</t>
-  </si>
-  <si>
-    <t>Налити кипьяток у чашку</t>
-  </si>
-  <si>
-    <t>Добавити до кипьятка кави</t>
-  </si>
-  <si>
-    <t>Запарити каву</t>
-  </si>
-  <si>
-    <t>Покласти цукор</t>
-  </si>
-  <si>
-    <t>Перемышати цукор</t>
-  </si>
-  <si>
-    <t>Добавити кориці</t>
-  </si>
-  <si>
-    <t>ordering</t>
   </si>
   <si>
     <t>Correct Answer 1</t>
@@ -659,8 +629,8 @@
   </sheetPr>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -717,46 +687,46 @@
         <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>72</v>
@@ -765,7 +735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -1366,7 +1336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
@@ -1394,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -1491,63 +1461,22 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>2</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5447856A-D795-45A1-9B35-CE21F4574446}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF5FBB-6290-4CFB-8A44-F559E237F38E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>Топографічна карта це ...</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Correct Answer 12</t>
+  </si>
+  <si>
+    <t>Variant</t>
   </si>
 </sst>
 </file>
@@ -627,10 +630,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -646,10 +649,12 @@
     <col min="15" max="16" width="41.42578125" style="2" customWidth="1"/>
     <col min="17" max="26" width="33" style="2" customWidth="1"/>
     <col min="27" max="27" width="22.85546875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="2"/>
+    <col min="28" max="28" width="12.5703125" style="2"/>
+    <col min="29" max="29" width="21.85546875" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -734,8 +739,11 @@
       <c r="AB1" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="AC1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -772,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -806,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -845,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -882,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
@@ -919,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -956,7 +964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="150" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="150" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF5FBB-6290-4CFB-8A44-F559E237F38E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE3929-4CC8-4058-9F18-C64A849DD74E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>Топографічна карта це ...</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>singlechoice</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -412,6 +415,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -773,8 +779,8 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="4" t="s">
-        <v>74</v>
+      <c r="AA2" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
@@ -807,8 +813,8 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="4" t="s">
-        <v>74</v>
+      <c r="AA3" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB3" s="2">
         <v>2</v>
@@ -883,8 +889,8 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="4" t="s">
-        <v>74</v>
+      <c r="AA5" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB5" s="2">
         <v>2</v>
@@ -920,8 +926,8 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="4" t="s">
-        <v>74</v>
+      <c r="AA6" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
@@ -957,8 +963,8 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="4" t="s">
-        <v>74</v>
+      <c r="AA7" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB7" s="2">
         <v>2</v>
@@ -994,8 +1000,8 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="4" t="s">
-        <v>74</v>
+      <c r="AA8" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
@@ -1096,8 +1102,8 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="4" t="s">
-        <v>74</v>
+      <c r="AA10" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB10" s="2">
         <v>2</v>
@@ -1133,8 +1139,8 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="4" t="s">
-        <v>74</v>
+      <c r="AA11" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB11" s="2">
         <v>2</v>
@@ -1170,8 +1176,8 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="4" t="s">
-        <v>74</v>
+      <c r="AA12" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB12" s="2">
         <v>2</v>
@@ -1207,8 +1213,8 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="4" t="s">
-        <v>74</v>
+      <c r="AA13" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB13" s="2">
         <v>2</v>
@@ -1244,8 +1250,8 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="4" t="s">
-        <v>74</v>
+      <c r="AA14" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB14" s="2">
         <v>2</v>
@@ -1281,8 +1287,8 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="4" t="s">
-        <v>74</v>
+      <c r="AA15" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB15" s="2">
         <v>2</v>
@@ -1405,8 +1411,8 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="4" t="s">
-        <v>74</v>
+      <c r="AA19" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AB19" s="2">
         <v>3</v>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE3929-4CC8-4058-9F18-C64A849DD74E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA3A20-E036-4263-9147-BBA54956FEAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,27 +256,12 @@
     <t>Який магнітний азимут встановлений на компасі?</t>
   </si>
   <si>
-    <t>Picture 1</t>
-  </si>
-  <si>
-    <t>Picture 5</t>
-  </si>
-  <si>
     <t>Визначте географічні координати вказаної точки. Широту та довготу вказувати градуси, хвилини та секунди через кому баз пробілів, наприклад, 52,37,40,31,37,20</t>
   </si>
   <si>
-    <t>Picture 2</t>
-  </si>
-  <si>
     <t>Визначте повні прямокутні координати вказаної точки. Координати осі абсцис Х та координати осі ординат Y вказувати через пробіл. Приклад: 5455500 5612750</t>
   </si>
   <si>
-    <t>Picture 3</t>
-  </si>
-  <si>
-    <t>Picture 4</t>
-  </si>
-  <si>
     <t>Чому буде дорівнювати азимут магнітний (Ам) якщо схилення на 2002 рік східне 10°15' (1-71), середнє відхилення меридіанів західне 2° 10' (0-36), а річна зміна схилення східна 0°04' (0-01)?</t>
   </si>
   <si>
@@ -286,9 +271,6 @@
     <t>Переведіть дирекційний кут направлення в азимут магнітний. Запишіть значення в градусах та хвилинах через кому. Приклад: 132,24</t>
   </si>
   <si>
-    <t>Picture 6</t>
-  </si>
-  <si>
     <t>Option 7</t>
   </si>
   <si>
@@ -347,6 +329,24 @@
   </si>
   <si>
     <t>singlechoice</t>
+  </si>
+  <si>
+    <t>Picture1</t>
+  </si>
+  <si>
+    <t>Picture2</t>
+  </si>
+  <si>
+    <t>Picture3</t>
+  </si>
+  <si>
+    <t>Picture4</t>
+  </si>
+  <si>
+    <t>Picture5</t>
+  </si>
+  <si>
+    <t>Picture6</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -686,58 +686,58 @@
         <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>72</v>
@@ -746,7 +746,7 @@
         <v>73</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="2">
         <v>2</v>
@@ -814,7 +814,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="2">
         <v>2</v>
@@ -890,7 +890,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB5" s="2">
         <v>2</v>
@@ -927,7 +927,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB6" s="2">
         <v>2</v>
@@ -964,7 +964,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB7" s="2">
         <v>2</v>
@@ -1001,7 +1001,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
@@ -1103,7 +1103,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB10" s="2">
         <v>2</v>
@@ -1140,7 +1140,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB11" s="2">
         <v>2</v>
@@ -1177,7 +1177,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB12" s="2">
         <v>2</v>
@@ -1214,7 +1214,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB13" s="2">
         <v>2</v>
@@ -1251,7 +1251,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB14" s="2">
         <v>2</v>
@@ -1288,7 +1288,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB15" s="2">
         <v>2</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>77</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="17" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>59</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="18" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>60</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="19" spans="1:28" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>61</v>
@@ -1412,7 +1412,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB19" s="2">
         <v>3</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="20" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O20" s="3">
         <v>240</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="21" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O21" s="3">
         <v>229.35</v>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA1E07-A5D3-45FA-844A-DCEB760BCFA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993DDF1-B628-4882-B9E0-91B78C076C20}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:AC671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993DDF1-B628-4882-B9E0-91B78C076C20}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7E125-D4B5-42F6-B14F-18D44BFDE9EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="405">
   <si>
     <t>Question</t>
   </si>
@@ -244,36 +244,9 @@
     <t>Швидкість, яка зменшує вплив зовнішніх умов</t>
   </si>
   <si>
-    <t>Вийняти пенал з приладдям із гнізда приклада</t>
-  </si>
-  <si>
-    <t>Відокремити шомпол</t>
-  </si>
-  <si>
-    <t>Відокремити газову трубку зі ствольною накладкою</t>
-  </si>
-  <si>
-    <t>Відокремити кришку ствольної коробки</t>
-  </si>
-  <si>
-    <t>Відокремити затвор від затворної рами</t>
-  </si>
-  <si>
-    <t>Відокремити затворну раму із затвором</t>
-  </si>
-  <si>
     <t>Перевірити відсутність патрону в патроннику, зробити контрольний спуск</t>
   </si>
   <si>
-    <t>Послідовність неповного розбирання автомата Калашнікова АКС-74</t>
-  </si>
-  <si>
-    <t>Відокремити зворотній механізм</t>
-  </si>
-  <si>
-    <t>На якій дистанції перевіряється нормальний бой та приводиться до нормального бою пістолети ПМ, Clock-17?</t>
-  </si>
-  <si>
     <t>10 метрів</t>
   </si>
   <si>
@@ -325,21 +298,6 @@
     <t>Перевірити відсутність патрону в патроннику</t>
   </si>
   <si>
-    <t>Послідовність неповного розбирання гвинтівки SIG Sauer 516</t>
-  </si>
-  <si>
-    <t>Виштовхнути задній знімний штифт</t>
-  </si>
-  <si>
-    <t>Повернути нижню частину ствольної коробки (Lower) донизу</t>
-  </si>
-  <si>
-    <t>Вийняти затворну раму із затвором</t>
-  </si>
-  <si>
-    <t>Вирівняти вушки ручки заряджання з виїмками верхньої ствольної коробки та зняти її, потягнувши вниз, а потім назад</t>
-  </si>
-  <si>
     <t>Від’єднати магазин</t>
   </si>
   <si>
@@ -385,31 +343,898 @@
     <t>Тактико-технічні характеристики Glock-17</t>
   </si>
   <si>
-    <t xml:space="preserve">Відокремити дульне гальмо-компенсатор </t>
-  </si>
-  <si>
     <t>Що таке MOA (Minute of angle)?</t>
   </si>
   <si>
-    <t>fillblank</t>
-  </si>
-  <si>
-    <t>Перевірка бою і приведення до нормального бою автомата АК-74.
-Підготувати і встановити перевірочну мішень (або чорний прямокутник розміром ___ см по висотіта та ___ см в ширину), закріплену на білому щиті висотою ___ м та шириною ___ м, на відстані ___ м.
-Встановити на автоматі приціл ___.
-Із положення лежачи з упору правильно та однаково прицілюючись, з врахуванням того, що точка прицілювання розмішується на середині нижнього краю мішені, зробити ___ одиночних постріли.
-Визначити кучність стрільби і положення середньої точки влучення (СТВ):
-- якщо чотири пробоїни (чи три при одній віддаленій) входять у встановлений габарит (коло діаметром ___ см). то кучність бою автомата визнається нормальною і далі треба визначити СТВ;
-- визначити СТВ;
-- при умові, що СТВ відхилилась від КТ (контрольна точка знаходиться по вертикальній лінії вище точки прицілювання на ___ см) не більш як на ___ см у будь-якому напрямку, автомат приведено до нормального бою, якщо більше потрібно провести регулювання мушки і повторити стрільбу.
-При переміщенні мушки в бік на 1 мм середня точка влучення при стрільбі на 100 м змішується на ___ см. Один повний оберт мушки переміщує СТВ по висоті при стрільбі на ___ см.
-Правильність переміщення мушки перевіряється повторною стрільбою.</t>
-  </si>
-  <si>
     <t>singlechoice</t>
   </si>
   <si>
-    <t>Picture21</t>
+    <t>Якщо по тактико-технічним характеристикам ціна кліку коліматорного прицілу дорівнює 0,5 MOA і ви зробили 2 кліки, на скільки зміститься середня точка влучення на дистанції 100 метрів?</t>
+  </si>
+  <si>
+    <t>Якщо по тактико-технічним характеристикам ціна кліку коліматорного прицілу дорівнює 0,5 MOA і ви зробили 1 клік, на скільки зміститься середня точка влучення на дистанції 100 метрів?</t>
+  </si>
+  <si>
+    <t>Variant 1</t>
+  </si>
+  <si>
+    <t>Variant 2</t>
+  </si>
+  <si>
+    <t>Variant 3</t>
+  </si>
+  <si>
+    <t>На якій дистанції перевіряється нормальний бой та приводиться до нормального бою пістолети Clock-17?</t>
+  </si>
+  <si>
+    <t>На що впливає довжина ствола гвинтівки?</t>
+  </si>
+  <si>
+    <t>На тип патрона</t>
+  </si>
+  <si>
+    <t>На початкову швидкість кулі та дальність стрільби</t>
+  </si>
+  <si>
+    <t>На кількість запобіжників</t>
+  </si>
+  <si>
+    <t>На вагу затвора</t>
+  </si>
+  <si>
+    <t>На тип газової системи</t>
+  </si>
+  <si>
+    <t>Чому більшість гвинтівок AR-15 мають стволи довжиною 16"?</t>
+  </si>
+  <si>
+    <t>Для зменшення віддачі</t>
+  </si>
+  <si>
+    <t>Для використання патронів .308 Win</t>
+  </si>
+  <si>
+    <t>Для спрощення чищення</t>
+  </si>
+  <si>
+    <t>Для відповідності цивільним законам США</t>
+  </si>
+  <si>
+    <t>Для підвищення точності</t>
+  </si>
+  <si>
+    <t>Чим відрізняються матчеві (високоточні) стволи від стандартних?</t>
+  </si>
+  <si>
+    <t>Вищою точністю виготовлення та товстішими стінками</t>
+  </si>
+  <si>
+    <t>Меншою товщиною стінок</t>
+  </si>
+  <si>
+    <t>Меншим кроком нарізів</t>
+  </si>
+  <si>
+    <t>Відсутністю хромування</t>
+  </si>
+  <si>
+    <t>Легшим матеріалом</t>
+  </si>
+  <si>
+    <t>Яким способом захищають канал ствола від корозії?</t>
+  </si>
+  <si>
+    <t>Покриттям пластиком</t>
+  </si>
+  <si>
+    <t>Збільшенням діаметра</t>
+  </si>
+  <si>
+    <t>Поліруванням нарізів</t>
+  </si>
+  <si>
+    <t>Хромуванням або нітруванням</t>
+  </si>
+  <si>
+    <t>Що таке ерозія (розгар) ствола?</t>
+  </si>
+  <si>
+    <t>Зменшення довжини ствола</t>
+  </si>
+  <si>
+    <t>Збільшення діаметра каналу через знос</t>
+  </si>
+  <si>
+    <t>Утворення тріщин у затворі</t>
+  </si>
+  <si>
+    <t>Зміна твісту нарізів</t>
+  </si>
+  <si>
+    <t>Корозія цівки</t>
+  </si>
+  <si>
+    <t>Від чого залежить ресурс ствола гвинтівки?</t>
+  </si>
+  <si>
+    <t>Кількості магазинів</t>
+  </si>
+  <si>
+    <t>Типу прицілу</t>
+  </si>
+  <si>
+    <t>Довжини цівки</t>
+  </si>
+  <si>
+    <t>Матеріалу, якості виготовлення та інтенсивності стрільби</t>
+  </si>
+  <si>
+    <t>Ваги патрона</t>
+  </si>
+  <si>
+    <t>Що таке твіст (крок нарізів) ствола?</t>
+  </si>
+  <si>
+    <t>Діаметр каналу ствола</t>
+  </si>
+  <si>
+    <t>Кількість нарізів</t>
+  </si>
+  <si>
+    <t>Відстань, за яку куля робить повний оберт</t>
+  </si>
+  <si>
+    <t>Товщина стінок ствола</t>
+  </si>
+  <si>
+    <t>Кут затвора</t>
+  </si>
+  <si>
+    <t>Що означає позначення FMJ у набої 9x19 мм?</t>
+  </si>
+  <si>
+    <t>Фугасна куля</t>
+  </si>
+  <si>
+    <t>Експансивна куля</t>
+  </si>
+  <si>
+    <t>Трасуюча куля</t>
+  </si>
+  <si>
+    <t>Куля з суцільнометалевою оболонкою</t>
+  </si>
+  <si>
+    <t>Бронебійна куля</t>
+  </si>
+  <si>
+    <t>На що впливає твіст (крок нарізів) ствола?</t>
+  </si>
+  <si>
+    <t>На вагу гвинтівки</t>
+  </si>
+  <si>
+    <t>На стабільність кулі в польоті</t>
+  </si>
+  <si>
+    <t>На тип затвора</t>
+  </si>
+  <si>
+    <t>На швидкість перезаряджання</t>
+  </si>
+  <si>
+    <t>На довжину цівки</t>
+  </si>
+  <si>
+    <t>Де розташована казенна частина ствола?</t>
+  </si>
+  <si>
+    <t>У задній частині, де розміщується патрон</t>
+  </si>
+  <si>
+    <t>Біля дула</t>
+  </si>
+  <si>
+    <t>У середині ствола</t>
+  </si>
+  <si>
+    <t>На зовнішній поверхні</t>
+  </si>
+  <si>
+    <t>Біля газового блоку</t>
+  </si>
+  <si>
+    <t>Яке призначення дульних пристроїв гвинтівок AR-15?</t>
+  </si>
+  <si>
+    <t>Збільшення ваги зброї</t>
+  </si>
+  <si>
+    <t>Подача патронів</t>
+  </si>
+  <si>
+    <t>Захист затвора</t>
+  </si>
+  <si>
+    <t>Контроль віддачі, полум’я або звуку</t>
+  </si>
+  <si>
+    <t>Кріплення прицілу</t>
+  </si>
+  <si>
+    <t>Для чого призначений посилач (forward assist) у AR-15?</t>
+  </si>
+  <si>
+    <t>Зменшення віддачі</t>
+  </si>
+  <si>
+    <t>Досилання патрона в патронник</t>
+  </si>
+  <si>
+    <t>Зведення курка</t>
+  </si>
+  <si>
+    <t>Виймання магазину</t>
+  </si>
+  <si>
+    <t>Регулювання прицілу</t>
+  </si>
+  <si>
+    <t>Для чого призначене руків’я зведення AR-15?</t>
+  </si>
+  <si>
+    <t>Кріплення аксесуарів</t>
+  </si>
+  <si>
+    <t>Захист рук від нагріву</t>
+  </si>
+  <si>
+    <t>Регулювання газової системи</t>
+  </si>
+  <si>
+    <t>Зведення затвора для перезаряджання</t>
+  </si>
+  <si>
+    <t>На чому заснована газова система AR-15?</t>
+  </si>
+  <si>
+    <t>Електричному приводі</t>
+  </si>
+  <si>
+    <t>Прямому відведенні газів до затвора</t>
+  </si>
+  <si>
+    <t>Ручному перезаряджанні</t>
+  </si>
+  <si>
+    <t>Гідравлічному механізмі</t>
+  </si>
+  <si>
+    <t>Пружинному приводі</t>
+  </si>
+  <si>
+    <t>Що таке балістичний коефіцієнт кулі?</t>
+  </si>
+  <si>
+    <t>Вага кулі</t>
+  </si>
+  <si>
+    <t>Довжина гільзи</t>
+  </si>
+  <si>
+    <t>Швидкість горіння пороху</t>
+  </si>
+  <si>
+    <t>Показник опору кулі повітрю</t>
+  </si>
+  <si>
+    <t>Які фактори спричиняють ерозію ствола?</t>
+  </si>
+  <si>
+    <t>Висока температура порохових газів</t>
+  </si>
+  <si>
+    <t>Механічний вплив куль</t>
+  </si>
+  <si>
+    <t>Використання лазерного цілевказівника</t>
+  </si>
+  <si>
+    <t>Корозія від вологи</t>
+  </si>
+  <si>
+    <t>Часте чищення ствола</t>
+  </si>
+  <si>
+    <t>Низька якість патронів</t>
+  </si>
+  <si>
+    <t>Які елементи належать до дульних пристроїв AR-15?</t>
+  </si>
+  <si>
+    <t>Полум’ягасник</t>
+  </si>
+  <si>
+    <t>Газовий блок</t>
+  </si>
+  <si>
+    <t>Дульне гальмо</t>
+  </si>
+  <si>
+    <t>Цівка</t>
+  </si>
+  <si>
+    <t>Глушник</t>
+  </si>
+  <si>
+    <t>Лазерний цілевказівник</t>
+  </si>
+  <si>
+    <t>Які функції виконує цівка гвинтівки AR-15?</t>
+  </si>
+  <si>
+    <t>Збільшення швидкості стрільби</t>
+  </si>
+  <si>
+    <t>Охолодження ствола</t>
+  </si>
+  <si>
+    <t>З чого складаэться набой?</t>
+  </si>
+  <si>
+    <t>Затвор</t>
+  </si>
+  <si>
+    <t>Гільза</t>
+  </si>
+  <si>
+    <t>Куля</t>
+  </si>
+  <si>
+    <t>Приціл</t>
+  </si>
+  <si>
+    <t>Капсуль</t>
+  </si>
+  <si>
+    <t>Пороховий заряд</t>
+  </si>
+  <si>
+    <t>Які призначення має посилач (forward assist)?</t>
+  </si>
+  <si>
+    <t>Досилання патрона</t>
+  </si>
+  <si>
+    <t>Попередження осічок</t>
+  </si>
+  <si>
+    <t>Виправлення затримок</t>
+  </si>
+  <si>
+    <t>Які функції виконують лазерні цілевказівники?</t>
+  </si>
+  <si>
+    <t>Позначення цілі лазером</t>
+  </si>
+  <si>
+    <t>Покращення видимості в темряві</t>
+  </si>
+  <si>
+    <t>Збільшення дальності стрільби</t>
+  </si>
+  <si>
+    <t>Кріплення до цівки</t>
+  </si>
+  <si>
+    <t>Вимірювання відстані</t>
+  </si>
+  <si>
+    <t>Які дії підвищують ресурс ствола?</t>
+  </si>
+  <si>
+    <t>Використання якісних патронів</t>
+  </si>
+  <si>
+    <t>Регулярне чищення</t>
+  </si>
+  <si>
+    <t>Хромування каналу</t>
+  </si>
+  <si>
+    <t>Збільшення твісту</t>
+  </si>
+  <si>
+    <t>Зменшення частоти стрільби</t>
+  </si>
+  <si>
+    <t>Газова трубка</t>
+  </si>
+  <si>
+    <t>Затворна група</t>
+  </si>
+  <si>
+    <t>Які дії знижують ерозію ствола?</t>
+  </si>
+  <si>
+    <t>Використання патронів з меншим тиском</t>
+  </si>
+  <si>
+    <t>Збільшення діаметра ствола</t>
+  </si>
+  <si>
+    <t>Постійна стрільба чергами</t>
+  </si>
+  <si>
+    <t>Зіставте пристрій із його призначенням</t>
+  </si>
+  <si>
+    <t>Руків’я зведення</t>
+  </si>
+  <si>
+    <t>Зведення затвора</t>
+  </si>
+  <si>
+    <t>Позначає ціль</t>
+  </si>
+  <si>
+    <t>Зменшує віддачу</t>
+  </si>
+  <si>
+    <t>Посилач</t>
+  </si>
+  <si>
+    <t>Захист рук і аксесуари</t>
+  </si>
+  <si>
+    <t>Початок стрільби</t>
+  </si>
+  <si>
+    <t>Приведення зброї у безпечний стан</t>
+  </si>
+  <si>
+    <t>Маніпуляції зі зброєю для готовності</t>
+  </si>
+  <si>
+    <t>Припинення вогню</t>
+  </si>
+  <si>
+    <t>Підняття спорядження</t>
+  </si>
+  <si>
+    <t>Після розряджання зброї</t>
+  </si>
+  <si>
+    <t>Для початку виконання вправи</t>
+  </si>
+  <si>
+    <t>При виявленні несправності</t>
+  </si>
+  <si>
+    <t>Після перевірки спорядження</t>
+  </si>
+  <si>
+    <t>Під час припинення стрільби</t>
+  </si>
+  <si>
+    <t>Яке призначення команди ПРИГОТУВАТИСЬ?</t>
+  </si>
+  <si>
+    <t>Коли подається команда ВОГОНЬ?</t>
+  </si>
+  <si>
+    <t>У яких випадках подається команда СТІЙ!!! ПРИПИНИТИ СТРІЛЬБУ?</t>
+  </si>
+  <si>
+    <t>Для перевірки мішеней</t>
+  </si>
+  <si>
+    <t>Для заміни магазину</t>
+  </si>
+  <si>
+    <t>Під час підготовки зброї</t>
+  </si>
+  <si>
+    <t>При закінченні часу або порушенні безпеки</t>
+  </si>
+  <si>
+    <t>Для переходу на другорядну зброю</t>
+  </si>
+  <si>
+    <t>Що означає команда СТРІЛЬБУ ЗАКІНЧИВ?</t>
+  </si>
+  <si>
+    <t>Зброя розряджена</t>
+  </si>
+  <si>
+    <t>Виявлено затримку</t>
+  </si>
+  <si>
+    <t>Зброя готова до стрільби</t>
+  </si>
+  <si>
+    <t>Потрібно підняти спорядження</t>
+  </si>
+  <si>
+    <t>Співробітник завершив вправу</t>
+  </si>
+  <si>
+    <t>Яка дія виконується першою при підготовці пістолета за командою ПРИГОТУВАТИСЬ?</t>
+  </si>
+  <si>
+    <t>Приєднання магазину</t>
+  </si>
+  <si>
+    <t>Вилучення пістолета з кобури</t>
+  </si>
+  <si>
+    <t>Перевірка патронника</t>
+  </si>
+  <si>
+    <t>Постановка на запобіжник</t>
+  </si>
+  <si>
+    <t>Який ступінь готовності пістолета передбачає патрон у патроннику?</t>
+  </si>
+  <si>
+    <t>ІІ ступінь</t>
+  </si>
+  <si>
+    <t>І ступінь</t>
+  </si>
+  <si>
+    <t>ІІІ ступінь</t>
+  </si>
+  <si>
+    <t>Жоден ступінь</t>
+  </si>
+  <si>
+    <t>Усі ступені</t>
+  </si>
+  <si>
+    <t>Яке положення займає співробітник після команди ПРИГОТУВАТИСЬ?</t>
+  </si>
+  <si>
+    <t>Лежачи</t>
+  </si>
+  <si>
+    <t>З коліна</t>
+  </si>
+  <si>
+    <t>Напівприсід</t>
+  </si>
+  <si>
+    <t>Фронтальна стійка</t>
+  </si>
+  <si>
+    <t>Вихідне положення, визначене керівником</t>
+  </si>
+  <si>
+    <t>Що забороняється без команди керівника на вогневому рубежі?</t>
+  </si>
+  <si>
+    <t>Перевірка прицілів</t>
+  </si>
+  <si>
+    <t>Контроль патронника</t>
+  </si>
+  <si>
+    <t>Використання рукавиць</t>
+  </si>
+  <si>
+    <t>Яка дія виконується при осічці пістолета?</t>
+  </si>
+  <si>
+    <t>Штовхання затвора</t>
+  </si>
+  <si>
+    <t>Видалення гільзи рукою</t>
+  </si>
+  <si>
+    <t>Удар по руків’ю</t>
+  </si>
+  <si>
+    <t>Підбиття магазину та перезаряджання</t>
+  </si>
+  <si>
+    <t>Постановка на затримку</t>
+  </si>
+  <si>
+    <t>Пістолетна кобура</t>
+  </si>
+  <si>
+    <t>Яка команда подається співробітником перед застосуванням зброї?</t>
+  </si>
+  <si>
+    <t>ПРОБЛЕМА</t>
+  </si>
+  <si>
+    <t>ЦІЛЬ</t>
+  </si>
+  <si>
+    <t>СТРІЛЬБУ ЗАКІНЧИВ</t>
+  </si>
+  <si>
+    <t>РОЗРЯДЖАЙ</t>
+  </si>
+  <si>
+    <t>ВОГОНЬ</t>
+  </si>
+  <si>
+    <t>Що контролюється при прицілюванні з механічними прицілами?</t>
+  </si>
+  <si>
+    <t>Тільки ціль</t>
+  </si>
+  <si>
+    <t>Тільки мушка</t>
+  </si>
+  <si>
+    <t>Тільки цілик</t>
+  </si>
+  <si>
+    <t>Мушка, цілик, ціль</t>
+  </si>
+  <si>
+    <t>Лазерна марка</t>
+  </si>
+  <si>
+    <t>Що забезпечує страхувальний ремінець пістолета?</t>
+  </si>
+  <si>
+    <t>Зручність носіння</t>
+  </si>
+  <si>
+    <t>Швидке вилучення</t>
+  </si>
+  <si>
+    <t>Захист від втрати</t>
+  </si>
+  <si>
+    <t>Фіксацію магазину</t>
+  </si>
+  <si>
+    <t>Які дії виконує співробітник після команди «ПРИГОТУВАТИСЬ» з пістолетом?</t>
+  </si>
+  <si>
+    <t>Вилучає пістолет з кобури</t>
+  </si>
+  <si>
+    <t>Перевіряє патронник</t>
+  </si>
+  <si>
+    <t>Приєднує магазин</t>
+  </si>
+  <si>
+    <t>Подає команду ЦІЛЬ</t>
+  </si>
+  <si>
+    <t>Ставить на запобіжник</t>
+  </si>
+  <si>
+    <t>Заряджає зброю</t>
+  </si>
+  <si>
+    <t>Які дії забороняються на вогневому рубежі?</t>
+  </si>
+  <si>
+    <t>Заряджання без команди</t>
+  </si>
+  <si>
+    <t>Направлення зброї на людей</t>
+  </si>
+  <si>
+    <t>Ведення вогню після команди СТІЙ</t>
+  </si>
+  <si>
+    <t>Передача зброї без команди</t>
+  </si>
+  <si>
+    <t>Чищення зброї</t>
+  </si>
+  <si>
+    <t>Які дії виконуються при розряджанні пістолета?</t>
+  </si>
+  <si>
+    <t>Від’єднання магазину</t>
+  </si>
+  <si>
+    <t>Холостий спуск</t>
+  </si>
+  <si>
+    <t>Удар по затвору</t>
+  </si>
+  <si>
+    <t>Повернення в кобуру</t>
+  </si>
+  <si>
+    <t>Зіставте команду з її призначенням</t>
+  </si>
+  <si>
+    <t>ПРИГОТУВАТИСЬ</t>
+  </si>
+  <si>
+    <t>Маніпуляції зі зброєю</t>
+  </si>
+  <si>
+    <t>Початок вправи</t>
+  </si>
+  <si>
+    <t>СТІЙ</t>
+  </si>
+  <si>
+    <t>Приведення в безпечний стан</t>
+  </si>
+  <si>
+    <t>Перед застосуванням зброї</t>
+  </si>
+  <si>
+    <t>Зіставте ступінь готовності пістолета з описом</t>
+  </si>
+  <si>
+    <t>Патрон у патроннику, в руках</t>
+  </si>
+  <si>
+    <t>Патрон відсутній, магазин приєднаний</t>
+  </si>
+  <si>
+    <t>Розряджений, в кобурі</t>
+  </si>
+  <si>
+    <t>І ступінь (альтернатива)</t>
+  </si>
+  <si>
+    <t>На запобіжнику, в кобурі</t>
+  </si>
+  <si>
+    <t>ІІ ступінь (альтернатива)</t>
+  </si>
+  <si>
+    <t>Патрон у патроннику, в кобурі</t>
+  </si>
+  <si>
+    <t>Зіставте елемент спорядження з його розташуванням</t>
+  </si>
+  <si>
+    <t>На поясі</t>
+  </si>
+  <si>
+    <t>Сумка для скидання</t>
+  </si>
+  <si>
+    <t>На стегні слабкої сторони</t>
+  </si>
+  <si>
+    <t>Турнікет</t>
+  </si>
+  <si>
+    <t>З вільним доступом</t>
+  </si>
+  <si>
+    <t>Підсумок для гранат</t>
+  </si>
+  <si>
+    <t>На задній частині бронежилета</t>
+  </si>
+  <si>
+    <t>Радіостанція</t>
+  </si>
+  <si>
+    <t>На поясі або плечі</t>
+  </si>
+  <si>
+    <t>Зіставте затримку з її ознакою</t>
+  </si>
+  <si>
+    <t>Осічка</t>
+  </si>
+  <si>
+    <t>Затвор у передньому положенні</t>
+  </si>
+  <si>
+    <t>Ущемлення</t>
+  </si>
+  <si>
+    <t>Гільза між затвором і стволом</t>
+  </si>
+  <si>
+    <t>Недосил</t>
+  </si>
+  <si>
+    <t>Затвор не в передньому положенні</t>
+  </si>
+  <si>
+    <t>Роздуття</t>
+  </si>
+  <si>
+    <t>Затвор не рухається</t>
+  </si>
+  <si>
+    <t>Утиканія</t>
+  </si>
+  <si>
+    <t>Набій упирається в патронник</t>
+  </si>
+  <si>
+    <t>Перевірка патронника (press check)</t>
+  </si>
+  <si>
+    <t>Перевірка наявності/відсутності патрона в патроннику</t>
+  </si>
+  <si>
+    <t>Заряджання зброї (досилання патрона)</t>
+  </si>
+  <si>
+    <t>Розташуйте етапи підготовки штурмової гвинтівки за командою ПРИГОТУВАТИСЬ у правильному порядку</t>
+  </si>
+  <si>
+    <t>Постановка на затворну затримку</t>
+  </si>
+  <si>
+    <t>Вилучення магазину з підсумка</t>
+  </si>
+  <si>
+    <t>Закриття кришки вікна екстракції</t>
+  </si>
+  <si>
+    <t>Удар по досилачу затвора</t>
+  </si>
+  <si>
+    <t>Розташуйте етапи підготовки пістолета за командою ПРИГОТУВАТИСЬ у правильному порядку</t>
+  </si>
+  <si>
+    <t>Розташуйте дії співробітника при розряджанні пістолета за командою РОЗРЯДЖАЙ у правильному порядку</t>
+  </si>
+  <si>
+    <t>Покладання магазину в сумку для скидання</t>
+  </si>
+  <si>
+    <t>Холостий спуск у напрямку мішеней</t>
+  </si>
+  <si>
+    <t>Повернення пістолета в кобуру</t>
+  </si>
+  <si>
+    <t>Розташуйте дії співробітника при розряджанні штурмової гвинтівки за командою «РОЗРЯДЖАЙ» у правильному порядку</t>
+  </si>
+  <si>
+    <t>Відведення затвора кілька разів</t>
+  </si>
+  <si>
+    <t>Які набої використовують гвинтівки AR-15?</t>
+  </si>
+  <si>
+    <t>9х19 мм</t>
+  </si>
+  <si>
+    <t>5,45х39 мм</t>
+  </si>
+  <si>
+    <t>7,62х39 мм</t>
+  </si>
+  <si>
+    <t>7,62х51 мм</t>
+  </si>
+  <si>
+    <t>5,56х45 мм</t>
+  </si>
+  <si>
+    <t>саундмодератори</t>
+  </si>
+  <si>
+    <t>Які елементи відносяться до газової системи AR-15?</t>
+  </si>
+  <si>
+    <t>Етапи неповної розборки гвинтівки системи AR-15</t>
+  </si>
+  <si>
+    <t>Вийняти штифт та відокремити верхню частину гвинтівки</t>
+  </si>
+  <si>
+    <t>Витягнути затвор</t>
+  </si>
+  <si>
+    <t>Розібрати затворну групу</t>
   </si>
 </sst>
 </file>
@@ -694,9 +1519,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC671"/>
+  <dimension ref="A1:AC720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -710,8 +1535,8 @@
     <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26" style="2" customWidth="1"/>
-    <col min="10" max="14" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="17.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="41.42578125" style="2" customWidth="1"/>
     <col min="17" max="26" width="33" style="2" customWidth="1"/>
     <col min="27" max="27" width="22.85546875" style="2" customWidth="1"/>
@@ -806,57 +1631,57 @@
         <v>8</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -865,12 +1690,12 @@
         <v>9</v>
       </c>
       <c r="AB2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -908,7 +1733,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB3" s="4">
         <v>2</v>
@@ -916,7 +1741,7 @@
     </row>
     <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -954,7 +1779,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB4" s="4">
         <v>2</v>
@@ -962,7 +1787,7 @@
     </row>
     <row r="5" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1000,7 +1825,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB5" s="4">
         <v>2</v>
@@ -1008,7 +1833,7 @@
     </row>
     <row r="6" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1046,7 +1871,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="4">
         <v>2</v>
@@ -1054,7 +1879,7 @@
     </row>
     <row r="7" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1092,7 +1917,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB7" s="4">
         <v>2</v>
@@ -1100,7 +1925,7 @@
     </row>
     <row r="8" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1138,7 +1963,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB8" s="4">
         <v>2</v>
@@ -1146,8 +1971,8 @@
     </row>
     <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>122</v>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>55</v>
@@ -1183,15 +2008,15 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB9" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1229,28 +2054,31 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="AC10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1261,7 +2089,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1275,113 +2103,83 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>81</v>
+      <c r="AC11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="AB12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="AC12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>83</v>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1389,7 +2187,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1403,1606 +2201,1687 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AB13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>110</v>
+    <row r="14" spans="1:29" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA14" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="AB14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>101</v>
+    <row r="15" spans="1:29" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>394</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <v>397</v>
+      </c>
       <c r="O15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+        <v>398</v>
+      </c>
       <c r="AA15" s="4" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="AB15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>120</v>
+    <row r="16" spans="1:29" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
-        <v>9</v>
-      </c>
-      <c r="P16" s="4">
-        <v>186</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>114</v>
-      </c>
-      <c r="R16" s="4">
-        <v>138</v>
-      </c>
-      <c r="S16" s="4">
-        <v>625</v>
-      </c>
-      <c r="T16" s="4">
-        <v>17</v>
-      </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="AA16" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AB16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
-        <v>35</v>
-      </c>
-      <c r="P17" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="4">
-        <v>100</v>
-      </c>
-      <c r="T17" s="4">
-        <v>3</v>
-      </c>
-      <c r="U17" s="4">
-        <v>4</v>
-      </c>
-      <c r="V17" s="4">
-        <v>15</v>
-      </c>
-      <c r="W17" s="4">
-        <v>13</v>
-      </c>
-      <c r="X17" s="4">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>26</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>20</v>
+    <row r="17" spans="2:28" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AB17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-    </row>
-    <row r="24" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -3010,11 +3889,21 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
+      <c r="O63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -3022,55 +3911,105 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
+      <c r="O64" s="4">
+        <v>9</v>
+      </c>
+      <c r="P64" s="4">
+        <v>186</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>114</v>
+      </c>
+      <c r="R64" s="4">
+        <v>138</v>
+      </c>
+      <c r="S64" s="4">
+        <v>625</v>
+      </c>
+      <c r="T64" s="4">
+        <v>17</v>
+      </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+      <c r="O65" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -3082,17 +4021,33 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -3100,11 +4055,21 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
+      <c r="O66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -3112,10 +4077,14 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="4"/>
@@ -3145,7 +4114,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="4"/>
@@ -3175,7 +4144,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -3205,7 +4174,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -3235,7 +4204,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="4"/>
@@ -3265,7 +4234,7 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="4"/>
@@ -3295,7 +4264,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="4"/>
@@ -21265,6 +22234,1476 @@
       <c r="AA671" s="4"/>
       <c r="AB671" s="4"/>
     </row>
+    <row r="672" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="4"/>
+      <c r="B672" s="5"/>
+      <c r="C672" s="4"/>
+      <c r="D672" s="4"/>
+      <c r="E672" s="4"/>
+      <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
+      <c r="H672" s="4"/>
+      <c r="I672" s="4"/>
+      <c r="J672" s="4"/>
+      <c r="K672" s="4"/>
+      <c r="L672" s="4"/>
+      <c r="M672" s="4"/>
+      <c r="N672" s="4"/>
+      <c r="O672" s="4"/>
+      <c r="P672" s="4"/>
+      <c r="Q672" s="4"/>
+      <c r="R672" s="4"/>
+      <c r="S672" s="4"/>
+      <c r="T672" s="4"/>
+      <c r="U672" s="4"/>
+      <c r="V672" s="4"/>
+      <c r="W672" s="4"/>
+      <c r="X672" s="4"/>
+      <c r="Y672" s="4"/>
+      <c r="Z672" s="4"/>
+      <c r="AA672" s="4"/>
+      <c r="AB672" s="4"/>
+    </row>
+    <row r="673" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="4"/>
+      <c r="B673" s="5"/>
+      <c r="C673" s="4"/>
+      <c r="D673" s="4"/>
+      <c r="E673" s="4"/>
+      <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
+      <c r="H673" s="4"/>
+      <c r="I673" s="4"/>
+      <c r="J673" s="4"/>
+      <c r="K673" s="4"/>
+      <c r="L673" s="4"/>
+      <c r="M673" s="4"/>
+      <c r="N673" s="4"/>
+      <c r="O673" s="4"/>
+      <c r="P673" s="4"/>
+      <c r="Q673" s="4"/>
+      <c r="R673" s="4"/>
+      <c r="S673" s="4"/>
+      <c r="T673" s="4"/>
+      <c r="U673" s="4"/>
+      <c r="V673" s="4"/>
+      <c r="W673" s="4"/>
+      <c r="X673" s="4"/>
+      <c r="Y673" s="4"/>
+      <c r="Z673" s="4"/>
+      <c r="AA673" s="4"/>
+      <c r="AB673" s="4"/>
+    </row>
+    <row r="674" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="4"/>
+      <c r="B674" s="5"/>
+      <c r="C674" s="4"/>
+      <c r="D674" s="4"/>
+      <c r="E674" s="4"/>
+      <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
+      <c r="H674" s="4"/>
+      <c r="I674" s="4"/>
+      <c r="J674" s="4"/>
+      <c r="K674" s="4"/>
+      <c r="L674" s="4"/>
+      <c r="M674" s="4"/>
+      <c r="N674" s="4"/>
+      <c r="O674" s="4"/>
+      <c r="P674" s="4"/>
+      <c r="Q674" s="4"/>
+      <c r="R674" s="4"/>
+      <c r="S674" s="4"/>
+      <c r="T674" s="4"/>
+      <c r="U674" s="4"/>
+      <c r="V674" s="4"/>
+      <c r="W674" s="4"/>
+      <c r="X674" s="4"/>
+      <c r="Y674" s="4"/>
+      <c r="Z674" s="4"/>
+      <c r="AA674" s="4"/>
+      <c r="AB674" s="4"/>
+    </row>
+    <row r="675" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="4"/>
+      <c r="B675" s="5"/>
+      <c r="C675" s="4"/>
+      <c r="D675" s="4"/>
+      <c r="E675" s="4"/>
+      <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
+      <c r="H675" s="4"/>
+      <c r="I675" s="4"/>
+      <c r="J675" s="4"/>
+      <c r="K675" s="4"/>
+      <c r="L675" s="4"/>
+      <c r="M675" s="4"/>
+      <c r="N675" s="4"/>
+      <c r="O675" s="4"/>
+      <c r="P675" s="4"/>
+      <c r="Q675" s="4"/>
+      <c r="R675" s="4"/>
+      <c r="S675" s="4"/>
+      <c r="T675" s="4"/>
+      <c r="U675" s="4"/>
+      <c r="V675" s="4"/>
+      <c r="W675" s="4"/>
+      <c r="X675" s="4"/>
+      <c r="Y675" s="4"/>
+      <c r="Z675" s="4"/>
+      <c r="AA675" s="4"/>
+      <c r="AB675" s="4"/>
+    </row>
+    <row r="676" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="4"/>
+      <c r="B676" s="5"/>
+      <c r="C676" s="4"/>
+      <c r="D676" s="4"/>
+      <c r="E676" s="4"/>
+      <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
+      <c r="H676" s="4"/>
+      <c r="I676" s="4"/>
+      <c r="J676" s="4"/>
+      <c r="K676" s="4"/>
+      <c r="L676" s="4"/>
+      <c r="M676" s="4"/>
+      <c r="N676" s="4"/>
+      <c r="O676" s="4"/>
+      <c r="P676" s="4"/>
+      <c r="Q676" s="4"/>
+      <c r="R676" s="4"/>
+      <c r="S676" s="4"/>
+      <c r="T676" s="4"/>
+      <c r="U676" s="4"/>
+      <c r="V676" s="4"/>
+      <c r="W676" s="4"/>
+      <c r="X676" s="4"/>
+      <c r="Y676" s="4"/>
+      <c r="Z676" s="4"/>
+      <c r="AA676" s="4"/>
+      <c r="AB676" s="4"/>
+    </row>
+    <row r="677" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="4"/>
+      <c r="B677" s="5"/>
+      <c r="C677" s="4"/>
+      <c r="D677" s="4"/>
+      <c r="E677" s="4"/>
+      <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
+      <c r="I677" s="4"/>
+      <c r="J677" s="4"/>
+      <c r="K677" s="4"/>
+      <c r="L677" s="4"/>
+      <c r="M677" s="4"/>
+      <c r="N677" s="4"/>
+      <c r="O677" s="4"/>
+      <c r="P677" s="4"/>
+      <c r="Q677" s="4"/>
+      <c r="R677" s="4"/>
+      <c r="S677" s="4"/>
+      <c r="T677" s="4"/>
+      <c r="U677" s="4"/>
+      <c r="V677" s="4"/>
+      <c r="W677" s="4"/>
+      <c r="X677" s="4"/>
+      <c r="Y677" s="4"/>
+      <c r="Z677" s="4"/>
+      <c r="AA677" s="4"/>
+      <c r="AB677" s="4"/>
+    </row>
+    <row r="678" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="4"/>
+      <c r="B678" s="5"/>
+      <c r="C678" s="4"/>
+      <c r="D678" s="4"/>
+      <c r="E678" s="4"/>
+      <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
+      <c r="I678" s="4"/>
+      <c r="J678" s="4"/>
+      <c r="K678" s="4"/>
+      <c r="L678" s="4"/>
+      <c r="M678" s="4"/>
+      <c r="N678" s="4"/>
+      <c r="O678" s="4"/>
+      <c r="P678" s="4"/>
+      <c r="Q678" s="4"/>
+      <c r="R678" s="4"/>
+      <c r="S678" s="4"/>
+      <c r="T678" s="4"/>
+      <c r="U678" s="4"/>
+      <c r="V678" s="4"/>
+      <c r="W678" s="4"/>
+      <c r="X678" s="4"/>
+      <c r="Y678" s="4"/>
+      <c r="Z678" s="4"/>
+      <c r="AA678" s="4"/>
+      <c r="AB678" s="4"/>
+    </row>
+    <row r="679" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="4"/>
+      <c r="B679" s="5"/>
+      <c r="C679" s="4"/>
+      <c r="D679" s="4"/>
+      <c r="E679" s="4"/>
+      <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
+      <c r="I679" s="4"/>
+      <c r="J679" s="4"/>
+      <c r="K679" s="4"/>
+      <c r="L679" s="4"/>
+      <c r="M679" s="4"/>
+      <c r="N679" s="4"/>
+      <c r="O679" s="4"/>
+      <c r="P679" s="4"/>
+      <c r="Q679" s="4"/>
+      <c r="R679" s="4"/>
+      <c r="S679" s="4"/>
+      <c r="T679" s="4"/>
+      <c r="U679" s="4"/>
+      <c r="V679" s="4"/>
+      <c r="W679" s="4"/>
+      <c r="X679" s="4"/>
+      <c r="Y679" s="4"/>
+      <c r="Z679" s="4"/>
+      <c r="AA679" s="4"/>
+      <c r="AB679" s="4"/>
+    </row>
+    <row r="680" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="4"/>
+      <c r="B680" s="5"/>
+      <c r="C680" s="4"/>
+      <c r="D680" s="4"/>
+      <c r="E680" s="4"/>
+      <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
+      <c r="H680" s="4"/>
+      <c r="I680" s="4"/>
+      <c r="J680" s="4"/>
+      <c r="K680" s="4"/>
+      <c r="L680" s="4"/>
+      <c r="M680" s="4"/>
+      <c r="N680" s="4"/>
+      <c r="O680" s="4"/>
+      <c r="P680" s="4"/>
+      <c r="Q680" s="4"/>
+      <c r="R680" s="4"/>
+      <c r="S680" s="4"/>
+      <c r="T680" s="4"/>
+      <c r="U680" s="4"/>
+      <c r="V680" s="4"/>
+      <c r="W680" s="4"/>
+      <c r="X680" s="4"/>
+      <c r="Y680" s="4"/>
+      <c r="Z680" s="4"/>
+      <c r="AA680" s="4"/>
+      <c r="AB680" s="4"/>
+    </row>
+    <row r="681" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="4"/>
+      <c r="B681" s="5"/>
+      <c r="C681" s="4"/>
+      <c r="D681" s="4"/>
+      <c r="E681" s="4"/>
+      <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
+      <c r="H681" s="4"/>
+      <c r="I681" s="4"/>
+      <c r="J681" s="4"/>
+      <c r="K681" s="4"/>
+      <c r="L681" s="4"/>
+      <c r="M681" s="4"/>
+      <c r="N681" s="4"/>
+      <c r="O681" s="4"/>
+      <c r="P681" s="4"/>
+      <c r="Q681" s="4"/>
+      <c r="R681" s="4"/>
+      <c r="S681" s="4"/>
+      <c r="T681" s="4"/>
+      <c r="U681" s="4"/>
+      <c r="V681" s="4"/>
+      <c r="W681" s="4"/>
+      <c r="X681" s="4"/>
+      <c r="Y681" s="4"/>
+      <c r="Z681" s="4"/>
+      <c r="AA681" s="4"/>
+      <c r="AB681" s="4"/>
+    </row>
+    <row r="682" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="4"/>
+      <c r="B682" s="5"/>
+      <c r="C682" s="4"/>
+      <c r="D682" s="4"/>
+      <c r="E682" s="4"/>
+      <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
+      <c r="H682" s="4"/>
+      <c r="I682" s="4"/>
+      <c r="J682" s="4"/>
+      <c r="K682" s="4"/>
+      <c r="L682" s="4"/>
+      <c r="M682" s="4"/>
+      <c r="N682" s="4"/>
+      <c r="O682" s="4"/>
+      <c r="P682" s="4"/>
+      <c r="Q682" s="4"/>
+      <c r="R682" s="4"/>
+      <c r="S682" s="4"/>
+      <c r="T682" s="4"/>
+      <c r="U682" s="4"/>
+      <c r="V682" s="4"/>
+      <c r="W682" s="4"/>
+      <c r="X682" s="4"/>
+      <c r="Y682" s="4"/>
+      <c r="Z682" s="4"/>
+      <c r="AA682" s="4"/>
+      <c r="AB682" s="4"/>
+    </row>
+    <row r="683" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="4"/>
+      <c r="B683" s="5"/>
+      <c r="C683" s="4"/>
+      <c r="D683" s="4"/>
+      <c r="E683" s="4"/>
+      <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
+      <c r="H683" s="4"/>
+      <c r="I683" s="4"/>
+      <c r="J683" s="4"/>
+      <c r="K683" s="4"/>
+      <c r="L683" s="4"/>
+      <c r="M683" s="4"/>
+      <c r="N683" s="4"/>
+      <c r="O683" s="4"/>
+      <c r="P683" s="4"/>
+      <c r="Q683" s="4"/>
+      <c r="R683" s="4"/>
+      <c r="S683" s="4"/>
+      <c r="T683" s="4"/>
+      <c r="U683" s="4"/>
+      <c r="V683" s="4"/>
+      <c r="W683" s="4"/>
+      <c r="X683" s="4"/>
+      <c r="Y683" s="4"/>
+      <c r="Z683" s="4"/>
+      <c r="AA683" s="4"/>
+      <c r="AB683" s="4"/>
+    </row>
+    <row r="684" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="4"/>
+      <c r="B684" s="5"/>
+      <c r="C684" s="4"/>
+      <c r="D684" s="4"/>
+      <c r="E684" s="4"/>
+      <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
+      <c r="H684" s="4"/>
+      <c r="I684" s="4"/>
+      <c r="J684" s="4"/>
+      <c r="K684" s="4"/>
+      <c r="L684" s="4"/>
+      <c r="M684" s="4"/>
+      <c r="N684" s="4"/>
+      <c r="O684" s="4"/>
+      <c r="P684" s="4"/>
+      <c r="Q684" s="4"/>
+      <c r="R684" s="4"/>
+      <c r="S684" s="4"/>
+      <c r="T684" s="4"/>
+      <c r="U684" s="4"/>
+      <c r="V684" s="4"/>
+      <c r="W684" s="4"/>
+      <c r="X684" s="4"/>
+      <c r="Y684" s="4"/>
+      <c r="Z684" s="4"/>
+      <c r="AA684" s="4"/>
+      <c r="AB684" s="4"/>
+    </row>
+    <row r="685" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="4"/>
+      <c r="B685" s="5"/>
+      <c r="C685" s="4"/>
+      <c r="D685" s="4"/>
+      <c r="E685" s="4"/>
+      <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
+      <c r="H685" s="4"/>
+      <c r="I685" s="4"/>
+      <c r="J685" s="4"/>
+      <c r="K685" s="4"/>
+      <c r="L685" s="4"/>
+      <c r="M685" s="4"/>
+      <c r="N685" s="4"/>
+      <c r="O685" s="4"/>
+      <c r="P685" s="4"/>
+      <c r="Q685" s="4"/>
+      <c r="R685" s="4"/>
+      <c r="S685" s="4"/>
+      <c r="T685" s="4"/>
+      <c r="U685" s="4"/>
+      <c r="V685" s="4"/>
+      <c r="W685" s="4"/>
+      <c r="X685" s="4"/>
+      <c r="Y685" s="4"/>
+      <c r="Z685" s="4"/>
+      <c r="AA685" s="4"/>
+      <c r="AB685" s="4"/>
+    </row>
+    <row r="686" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="4"/>
+      <c r="B686" s="5"/>
+      <c r="C686" s="4"/>
+      <c r="D686" s="4"/>
+      <c r="E686" s="4"/>
+      <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
+      <c r="H686" s="4"/>
+      <c r="I686" s="4"/>
+      <c r="J686" s="4"/>
+      <c r="K686" s="4"/>
+      <c r="L686" s="4"/>
+      <c r="M686" s="4"/>
+      <c r="N686" s="4"/>
+      <c r="O686" s="4"/>
+      <c r="P686" s="4"/>
+      <c r="Q686" s="4"/>
+      <c r="R686" s="4"/>
+      <c r="S686" s="4"/>
+      <c r="T686" s="4"/>
+      <c r="U686" s="4"/>
+      <c r="V686" s="4"/>
+      <c r="W686" s="4"/>
+      <c r="X686" s="4"/>
+      <c r="Y686" s="4"/>
+      <c r="Z686" s="4"/>
+      <c r="AA686" s="4"/>
+      <c r="AB686" s="4"/>
+    </row>
+    <row r="687" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="4"/>
+      <c r="B687" s="5"/>
+      <c r="C687" s="4"/>
+      <c r="D687" s="4"/>
+      <c r="E687" s="4"/>
+      <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
+      <c r="H687" s="4"/>
+      <c r="I687" s="4"/>
+      <c r="J687" s="4"/>
+      <c r="K687" s="4"/>
+      <c r="L687" s="4"/>
+      <c r="M687" s="4"/>
+      <c r="N687" s="4"/>
+      <c r="O687" s="4"/>
+      <c r="P687" s="4"/>
+      <c r="Q687" s="4"/>
+      <c r="R687" s="4"/>
+      <c r="S687" s="4"/>
+      <c r="T687" s="4"/>
+      <c r="U687" s="4"/>
+      <c r="V687" s="4"/>
+      <c r="W687" s="4"/>
+      <c r="X687" s="4"/>
+      <c r="Y687" s="4"/>
+      <c r="Z687" s="4"/>
+      <c r="AA687" s="4"/>
+      <c r="AB687" s="4"/>
+    </row>
+    <row r="688" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="4"/>
+      <c r="B688" s="5"/>
+      <c r="C688" s="4"/>
+      <c r="D688" s="4"/>
+      <c r="E688" s="4"/>
+      <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
+      <c r="H688" s="4"/>
+      <c r="I688" s="4"/>
+      <c r="J688" s="4"/>
+      <c r="K688" s="4"/>
+      <c r="L688" s="4"/>
+      <c r="M688" s="4"/>
+      <c r="N688" s="4"/>
+      <c r="O688" s="4"/>
+      <c r="P688" s="4"/>
+      <c r="Q688" s="4"/>
+      <c r="R688" s="4"/>
+      <c r="S688" s="4"/>
+      <c r="T688" s="4"/>
+      <c r="U688" s="4"/>
+      <c r="V688" s="4"/>
+      <c r="W688" s="4"/>
+      <c r="X688" s="4"/>
+      <c r="Y688" s="4"/>
+      <c r="Z688" s="4"/>
+      <c r="AA688" s="4"/>
+      <c r="AB688" s="4"/>
+    </row>
+    <row r="689" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="4"/>
+      <c r="B689" s="5"/>
+      <c r="C689" s="4"/>
+      <c r="D689" s="4"/>
+      <c r="E689" s="4"/>
+      <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
+      <c r="H689" s="4"/>
+      <c r="I689" s="4"/>
+      <c r="J689" s="4"/>
+      <c r="K689" s="4"/>
+      <c r="L689" s="4"/>
+      <c r="M689" s="4"/>
+      <c r="N689" s="4"/>
+      <c r="O689" s="4"/>
+      <c r="P689" s="4"/>
+      <c r="Q689" s="4"/>
+      <c r="R689" s="4"/>
+      <c r="S689" s="4"/>
+      <c r="T689" s="4"/>
+      <c r="U689" s="4"/>
+      <c r="V689" s="4"/>
+      <c r="W689" s="4"/>
+      <c r="X689" s="4"/>
+      <c r="Y689" s="4"/>
+      <c r="Z689" s="4"/>
+      <c r="AA689" s="4"/>
+      <c r="AB689" s="4"/>
+    </row>
+    <row r="690" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="4"/>
+      <c r="B690" s="5"/>
+      <c r="C690" s="4"/>
+      <c r="D690" s="4"/>
+      <c r="E690" s="4"/>
+      <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
+      <c r="H690" s="4"/>
+      <c r="I690" s="4"/>
+      <c r="J690" s="4"/>
+      <c r="K690" s="4"/>
+      <c r="L690" s="4"/>
+      <c r="M690" s="4"/>
+      <c r="N690" s="4"/>
+      <c r="O690" s="4"/>
+      <c r="P690" s="4"/>
+      <c r="Q690" s="4"/>
+      <c r="R690" s="4"/>
+      <c r="S690" s="4"/>
+      <c r="T690" s="4"/>
+      <c r="U690" s="4"/>
+      <c r="V690" s="4"/>
+      <c r="W690" s="4"/>
+      <c r="X690" s="4"/>
+      <c r="Y690" s="4"/>
+      <c r="Z690" s="4"/>
+      <c r="AA690" s="4"/>
+      <c r="AB690" s="4"/>
+    </row>
+    <row r="691" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="4"/>
+      <c r="B691" s="5"/>
+      <c r="C691" s="4"/>
+      <c r="D691" s="4"/>
+      <c r="E691" s="4"/>
+      <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
+      <c r="H691" s="4"/>
+      <c r="I691" s="4"/>
+      <c r="J691" s="4"/>
+      <c r="K691" s="4"/>
+      <c r="L691" s="4"/>
+      <c r="M691" s="4"/>
+      <c r="N691" s="4"/>
+      <c r="O691" s="4"/>
+      <c r="P691" s="4"/>
+      <c r="Q691" s="4"/>
+      <c r="R691" s="4"/>
+      <c r="S691" s="4"/>
+      <c r="T691" s="4"/>
+      <c r="U691" s="4"/>
+      <c r="V691" s="4"/>
+      <c r="W691" s="4"/>
+      <c r="X691" s="4"/>
+      <c r="Y691" s="4"/>
+      <c r="Z691" s="4"/>
+      <c r="AA691" s="4"/>
+      <c r="AB691" s="4"/>
+    </row>
+    <row r="692" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="4"/>
+      <c r="B692" s="5"/>
+      <c r="C692" s="4"/>
+      <c r="D692" s="4"/>
+      <c r="E692" s="4"/>
+      <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
+      <c r="H692" s="4"/>
+      <c r="I692" s="4"/>
+      <c r="J692" s="4"/>
+      <c r="K692" s="4"/>
+      <c r="L692" s="4"/>
+      <c r="M692" s="4"/>
+      <c r="N692" s="4"/>
+      <c r="O692" s="4"/>
+      <c r="P692" s="4"/>
+      <c r="Q692" s="4"/>
+      <c r="R692" s="4"/>
+      <c r="S692" s="4"/>
+      <c r="T692" s="4"/>
+      <c r="U692" s="4"/>
+      <c r="V692" s="4"/>
+      <c r="W692" s="4"/>
+      <c r="X692" s="4"/>
+      <c r="Y692" s="4"/>
+      <c r="Z692" s="4"/>
+      <c r="AA692" s="4"/>
+      <c r="AB692" s="4"/>
+    </row>
+    <row r="693" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="4"/>
+      <c r="B693" s="5"/>
+      <c r="C693" s="4"/>
+      <c r="D693" s="4"/>
+      <c r="E693" s="4"/>
+      <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
+      <c r="H693" s="4"/>
+      <c r="I693" s="4"/>
+      <c r="J693" s="4"/>
+      <c r="K693" s="4"/>
+      <c r="L693" s="4"/>
+      <c r="M693" s="4"/>
+      <c r="N693" s="4"/>
+      <c r="O693" s="4"/>
+      <c r="P693" s="4"/>
+      <c r="Q693" s="4"/>
+      <c r="R693" s="4"/>
+      <c r="S693" s="4"/>
+      <c r="T693" s="4"/>
+      <c r="U693" s="4"/>
+      <c r="V693" s="4"/>
+      <c r="W693" s="4"/>
+      <c r="X693" s="4"/>
+      <c r="Y693" s="4"/>
+      <c r="Z693" s="4"/>
+      <c r="AA693" s="4"/>
+      <c r="AB693" s="4"/>
+    </row>
+    <row r="694" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="4"/>
+      <c r="B694" s="5"/>
+      <c r="C694" s="4"/>
+      <c r="D694" s="4"/>
+      <c r="E694" s="4"/>
+      <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
+      <c r="H694" s="4"/>
+      <c r="I694" s="4"/>
+      <c r="J694" s="4"/>
+      <c r="K694" s="4"/>
+      <c r="L694" s="4"/>
+      <c r="M694" s="4"/>
+      <c r="N694" s="4"/>
+      <c r="O694" s="4"/>
+      <c r="P694" s="4"/>
+      <c r="Q694" s="4"/>
+      <c r="R694" s="4"/>
+      <c r="S694" s="4"/>
+      <c r="T694" s="4"/>
+      <c r="U694" s="4"/>
+      <c r="V694" s="4"/>
+      <c r="W694" s="4"/>
+      <c r="X694" s="4"/>
+      <c r="Y694" s="4"/>
+      <c r="Z694" s="4"/>
+      <c r="AA694" s="4"/>
+      <c r="AB694" s="4"/>
+    </row>
+    <row r="695" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="4"/>
+      <c r="B695" s="5"/>
+      <c r="C695" s="4"/>
+      <c r="D695" s="4"/>
+      <c r="E695" s="4"/>
+      <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
+      <c r="H695" s="4"/>
+      <c r="I695" s="4"/>
+      <c r="J695" s="4"/>
+      <c r="K695" s="4"/>
+      <c r="L695" s="4"/>
+      <c r="M695" s="4"/>
+      <c r="N695" s="4"/>
+      <c r="O695" s="4"/>
+      <c r="P695" s="4"/>
+      <c r="Q695" s="4"/>
+      <c r="R695" s="4"/>
+      <c r="S695" s="4"/>
+      <c r="T695" s="4"/>
+      <c r="U695" s="4"/>
+      <c r="V695" s="4"/>
+      <c r="W695" s="4"/>
+      <c r="X695" s="4"/>
+      <c r="Y695" s="4"/>
+      <c r="Z695" s="4"/>
+      <c r="AA695" s="4"/>
+      <c r="AB695" s="4"/>
+    </row>
+    <row r="696" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="4"/>
+      <c r="B696" s="5"/>
+      <c r="C696" s="4"/>
+      <c r="D696" s="4"/>
+      <c r="E696" s="4"/>
+      <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
+      <c r="H696" s="4"/>
+      <c r="I696" s="4"/>
+      <c r="J696" s="4"/>
+      <c r="K696" s="4"/>
+      <c r="L696" s="4"/>
+      <c r="M696" s="4"/>
+      <c r="N696" s="4"/>
+      <c r="O696" s="4"/>
+      <c r="P696" s="4"/>
+      <c r="Q696" s="4"/>
+      <c r="R696" s="4"/>
+      <c r="S696" s="4"/>
+      <c r="T696" s="4"/>
+      <c r="U696" s="4"/>
+      <c r="V696" s="4"/>
+      <c r="W696" s="4"/>
+      <c r="X696" s="4"/>
+      <c r="Y696" s="4"/>
+      <c r="Z696" s="4"/>
+      <c r="AA696" s="4"/>
+      <c r="AB696" s="4"/>
+    </row>
+    <row r="697" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="4"/>
+      <c r="B697" s="5"/>
+      <c r="C697" s="4"/>
+      <c r="D697" s="4"/>
+      <c r="E697" s="4"/>
+      <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
+      <c r="H697" s="4"/>
+      <c r="I697" s="4"/>
+      <c r="J697" s="4"/>
+      <c r="K697" s="4"/>
+      <c r="L697" s="4"/>
+      <c r="M697" s="4"/>
+      <c r="N697" s="4"/>
+      <c r="O697" s="4"/>
+      <c r="P697" s="4"/>
+      <c r="Q697" s="4"/>
+      <c r="R697" s="4"/>
+      <c r="S697" s="4"/>
+      <c r="T697" s="4"/>
+      <c r="U697" s="4"/>
+      <c r="V697" s="4"/>
+      <c r="W697" s="4"/>
+      <c r="X697" s="4"/>
+      <c r="Y697" s="4"/>
+      <c r="Z697" s="4"/>
+      <c r="AA697" s="4"/>
+      <c r="AB697" s="4"/>
+    </row>
+    <row r="698" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="4"/>
+      <c r="B698" s="5"/>
+      <c r="C698" s="4"/>
+      <c r="D698" s="4"/>
+      <c r="E698" s="4"/>
+      <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
+      <c r="H698" s="4"/>
+      <c r="I698" s="4"/>
+      <c r="J698" s="4"/>
+      <c r="K698" s="4"/>
+      <c r="L698" s="4"/>
+      <c r="M698" s="4"/>
+      <c r="N698" s="4"/>
+      <c r="O698" s="4"/>
+      <c r="P698" s="4"/>
+      <c r="Q698" s="4"/>
+      <c r="R698" s="4"/>
+      <c r="S698" s="4"/>
+      <c r="T698" s="4"/>
+      <c r="U698" s="4"/>
+      <c r="V698" s="4"/>
+      <c r="W698" s="4"/>
+      <c r="X698" s="4"/>
+      <c r="Y698" s="4"/>
+      <c r="Z698" s="4"/>
+      <c r="AA698" s="4"/>
+      <c r="AB698" s="4"/>
+    </row>
+    <row r="699" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="4"/>
+      <c r="B699" s="5"/>
+      <c r="C699" s="4"/>
+      <c r="D699" s="4"/>
+      <c r="E699" s="4"/>
+      <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
+      <c r="H699" s="4"/>
+      <c r="I699" s="4"/>
+      <c r="J699" s="4"/>
+      <c r="K699" s="4"/>
+      <c r="L699" s="4"/>
+      <c r="M699" s="4"/>
+      <c r="N699" s="4"/>
+      <c r="O699" s="4"/>
+      <c r="P699" s="4"/>
+      <c r="Q699" s="4"/>
+      <c r="R699" s="4"/>
+      <c r="S699" s="4"/>
+      <c r="T699" s="4"/>
+      <c r="U699" s="4"/>
+      <c r="V699" s="4"/>
+      <c r="W699" s="4"/>
+      <c r="X699" s="4"/>
+      <c r="Y699" s="4"/>
+      <c r="Z699" s="4"/>
+      <c r="AA699" s="4"/>
+      <c r="AB699" s="4"/>
+    </row>
+    <row r="700" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="4"/>
+      <c r="B700" s="5"/>
+      <c r="C700" s="4"/>
+      <c r="D700" s="4"/>
+      <c r="E700" s="4"/>
+      <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
+      <c r="H700" s="4"/>
+      <c r="I700" s="4"/>
+      <c r="J700" s="4"/>
+      <c r="K700" s="4"/>
+      <c r="L700" s="4"/>
+      <c r="M700" s="4"/>
+      <c r="N700" s="4"/>
+      <c r="O700" s="4"/>
+      <c r="P700" s="4"/>
+      <c r="Q700" s="4"/>
+      <c r="R700" s="4"/>
+      <c r="S700" s="4"/>
+      <c r="T700" s="4"/>
+      <c r="U700" s="4"/>
+      <c r="V700" s="4"/>
+      <c r="W700" s="4"/>
+      <c r="X700" s="4"/>
+      <c r="Y700" s="4"/>
+      <c r="Z700" s="4"/>
+      <c r="AA700" s="4"/>
+      <c r="AB700" s="4"/>
+    </row>
+    <row r="701" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="4"/>
+      <c r="B701" s="5"/>
+      <c r="C701" s="4"/>
+      <c r="D701" s="4"/>
+      <c r="E701" s="4"/>
+      <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
+      <c r="H701" s="4"/>
+      <c r="I701" s="4"/>
+      <c r="J701" s="4"/>
+      <c r="K701" s="4"/>
+      <c r="L701" s="4"/>
+      <c r="M701" s="4"/>
+      <c r="N701" s="4"/>
+      <c r="O701" s="4"/>
+      <c r="P701" s="4"/>
+      <c r="Q701" s="4"/>
+      <c r="R701" s="4"/>
+      <c r="S701" s="4"/>
+      <c r="T701" s="4"/>
+      <c r="U701" s="4"/>
+      <c r="V701" s="4"/>
+      <c r="W701" s="4"/>
+      <c r="X701" s="4"/>
+      <c r="Y701" s="4"/>
+      <c r="Z701" s="4"/>
+      <c r="AA701" s="4"/>
+      <c r="AB701" s="4"/>
+    </row>
+    <row r="702" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="4"/>
+      <c r="B702" s="5"/>
+      <c r="C702" s="4"/>
+      <c r="D702" s="4"/>
+      <c r="E702" s="4"/>
+      <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
+      <c r="H702" s="4"/>
+      <c r="I702" s="4"/>
+      <c r="J702" s="4"/>
+      <c r="K702" s="4"/>
+      <c r="L702" s="4"/>
+      <c r="M702" s="4"/>
+      <c r="N702" s="4"/>
+      <c r="O702" s="4"/>
+      <c r="P702" s="4"/>
+      <c r="Q702" s="4"/>
+      <c r="R702" s="4"/>
+      <c r="S702" s="4"/>
+      <c r="T702" s="4"/>
+      <c r="U702" s="4"/>
+      <c r="V702" s="4"/>
+      <c r="W702" s="4"/>
+      <c r="X702" s="4"/>
+      <c r="Y702" s="4"/>
+      <c r="Z702" s="4"/>
+      <c r="AA702" s="4"/>
+      <c r="AB702" s="4"/>
+    </row>
+    <row r="703" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="4"/>
+      <c r="B703" s="5"/>
+      <c r="C703" s="4"/>
+      <c r="D703" s="4"/>
+      <c r="E703" s="4"/>
+      <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
+      <c r="H703" s="4"/>
+      <c r="I703" s="4"/>
+      <c r="J703" s="4"/>
+      <c r="K703" s="4"/>
+      <c r="L703" s="4"/>
+      <c r="M703" s="4"/>
+      <c r="N703" s="4"/>
+      <c r="O703" s="4"/>
+      <c r="P703" s="4"/>
+      <c r="Q703" s="4"/>
+      <c r="R703" s="4"/>
+      <c r="S703" s="4"/>
+      <c r="T703" s="4"/>
+      <c r="U703" s="4"/>
+      <c r="V703" s="4"/>
+      <c r="W703" s="4"/>
+      <c r="X703" s="4"/>
+      <c r="Y703" s="4"/>
+      <c r="Z703" s="4"/>
+      <c r="AA703" s="4"/>
+      <c r="AB703" s="4"/>
+    </row>
+    <row r="704" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="4"/>
+      <c r="B704" s="5"/>
+      <c r="C704" s="4"/>
+      <c r="D704" s="4"/>
+      <c r="E704" s="4"/>
+      <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
+      <c r="H704" s="4"/>
+      <c r="I704" s="4"/>
+      <c r="J704" s="4"/>
+      <c r="K704" s="4"/>
+      <c r="L704" s="4"/>
+      <c r="M704" s="4"/>
+      <c r="N704" s="4"/>
+      <c r="O704" s="4"/>
+      <c r="P704" s="4"/>
+      <c r="Q704" s="4"/>
+      <c r="R704" s="4"/>
+      <c r="S704" s="4"/>
+      <c r="T704" s="4"/>
+      <c r="U704" s="4"/>
+      <c r="V704" s="4"/>
+      <c r="W704" s="4"/>
+      <c r="X704" s="4"/>
+      <c r="Y704" s="4"/>
+      <c r="Z704" s="4"/>
+      <c r="AA704" s="4"/>
+      <c r="AB704" s="4"/>
+    </row>
+    <row r="705" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="4"/>
+      <c r="B705" s="5"/>
+      <c r="C705" s="4"/>
+      <c r="D705" s="4"/>
+      <c r="E705" s="4"/>
+      <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
+      <c r="H705" s="4"/>
+      <c r="I705" s="4"/>
+      <c r="J705" s="4"/>
+      <c r="K705" s="4"/>
+      <c r="L705" s="4"/>
+      <c r="M705" s="4"/>
+      <c r="N705" s="4"/>
+      <c r="O705" s="4"/>
+      <c r="P705" s="4"/>
+      <c r="Q705" s="4"/>
+      <c r="R705" s="4"/>
+      <c r="S705" s="4"/>
+      <c r="T705" s="4"/>
+      <c r="U705" s="4"/>
+      <c r="V705" s="4"/>
+      <c r="W705" s="4"/>
+      <c r="X705" s="4"/>
+      <c r="Y705" s="4"/>
+      <c r="Z705" s="4"/>
+      <c r="AA705" s="4"/>
+      <c r="AB705" s="4"/>
+    </row>
+    <row r="706" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="4"/>
+      <c r="B706" s="5"/>
+      <c r="C706" s="4"/>
+      <c r="D706" s="4"/>
+      <c r="E706" s="4"/>
+      <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
+      <c r="H706" s="4"/>
+      <c r="I706" s="4"/>
+      <c r="J706" s="4"/>
+      <c r="K706" s="4"/>
+      <c r="L706" s="4"/>
+      <c r="M706" s="4"/>
+      <c r="N706" s="4"/>
+      <c r="O706" s="4"/>
+      <c r="P706" s="4"/>
+      <c r="Q706" s="4"/>
+      <c r="R706" s="4"/>
+      <c r="S706" s="4"/>
+      <c r="T706" s="4"/>
+      <c r="U706" s="4"/>
+      <c r="V706" s="4"/>
+      <c r="W706" s="4"/>
+      <c r="X706" s="4"/>
+      <c r="Y706" s="4"/>
+      <c r="Z706" s="4"/>
+      <c r="AA706" s="4"/>
+      <c r="AB706" s="4"/>
+    </row>
+    <row r="707" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="4"/>
+      <c r="B707" s="5"/>
+      <c r="C707" s="4"/>
+      <c r="D707" s="4"/>
+      <c r="E707" s="4"/>
+      <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
+      <c r="H707" s="4"/>
+      <c r="I707" s="4"/>
+      <c r="J707" s="4"/>
+      <c r="K707" s="4"/>
+      <c r="L707" s="4"/>
+      <c r="M707" s="4"/>
+      <c r="N707" s="4"/>
+      <c r="O707" s="4"/>
+      <c r="P707" s="4"/>
+      <c r="Q707" s="4"/>
+      <c r="R707" s="4"/>
+      <c r="S707" s="4"/>
+      <c r="T707" s="4"/>
+      <c r="U707" s="4"/>
+      <c r="V707" s="4"/>
+      <c r="W707" s="4"/>
+      <c r="X707" s="4"/>
+      <c r="Y707" s="4"/>
+      <c r="Z707" s="4"/>
+      <c r="AA707" s="4"/>
+      <c r="AB707" s="4"/>
+    </row>
+    <row r="708" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="4"/>
+      <c r="B708" s="5"/>
+      <c r="C708" s="4"/>
+      <c r="D708" s="4"/>
+      <c r="E708" s="4"/>
+      <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
+      <c r="H708" s="4"/>
+      <c r="I708" s="4"/>
+      <c r="J708" s="4"/>
+      <c r="K708" s="4"/>
+      <c r="L708" s="4"/>
+      <c r="M708" s="4"/>
+      <c r="N708" s="4"/>
+      <c r="O708" s="4"/>
+      <c r="P708" s="4"/>
+      <c r="Q708" s="4"/>
+      <c r="R708" s="4"/>
+      <c r="S708" s="4"/>
+      <c r="T708" s="4"/>
+      <c r="U708" s="4"/>
+      <c r="V708" s="4"/>
+      <c r="W708" s="4"/>
+      <c r="X708" s="4"/>
+      <c r="Y708" s="4"/>
+      <c r="Z708" s="4"/>
+      <c r="AA708" s="4"/>
+      <c r="AB708" s="4"/>
+    </row>
+    <row r="709" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="4"/>
+      <c r="B709" s="5"/>
+      <c r="C709" s="4"/>
+      <c r="D709" s="4"/>
+      <c r="E709" s="4"/>
+      <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
+      <c r="H709" s="4"/>
+      <c r="I709" s="4"/>
+      <c r="J709" s="4"/>
+      <c r="K709" s="4"/>
+      <c r="L709" s="4"/>
+      <c r="M709" s="4"/>
+      <c r="N709" s="4"/>
+      <c r="O709" s="4"/>
+      <c r="P709" s="4"/>
+      <c r="Q709" s="4"/>
+      <c r="R709" s="4"/>
+      <c r="S709" s="4"/>
+      <c r="T709" s="4"/>
+      <c r="U709" s="4"/>
+      <c r="V709" s="4"/>
+      <c r="W709" s="4"/>
+      <c r="X709" s="4"/>
+      <c r="Y709" s="4"/>
+      <c r="Z709" s="4"/>
+      <c r="AA709" s="4"/>
+      <c r="AB709" s="4"/>
+    </row>
+    <row r="710" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="4"/>
+      <c r="B710" s="5"/>
+      <c r="C710" s="4"/>
+      <c r="D710" s="4"/>
+      <c r="E710" s="4"/>
+      <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
+      <c r="H710" s="4"/>
+      <c r="I710" s="4"/>
+      <c r="J710" s="4"/>
+      <c r="K710" s="4"/>
+      <c r="L710" s="4"/>
+      <c r="M710" s="4"/>
+      <c r="N710" s="4"/>
+      <c r="O710" s="4"/>
+      <c r="P710" s="4"/>
+      <c r="Q710" s="4"/>
+      <c r="R710" s="4"/>
+      <c r="S710" s="4"/>
+      <c r="T710" s="4"/>
+      <c r="U710" s="4"/>
+      <c r="V710" s="4"/>
+      <c r="W710" s="4"/>
+      <c r="X710" s="4"/>
+      <c r="Y710" s="4"/>
+      <c r="Z710" s="4"/>
+      <c r="AA710" s="4"/>
+      <c r="AB710" s="4"/>
+    </row>
+    <row r="711" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="4"/>
+      <c r="B711" s="5"/>
+      <c r="C711" s="4"/>
+      <c r="D711" s="4"/>
+      <c r="E711" s="4"/>
+      <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
+      <c r="H711" s="4"/>
+      <c r="I711" s="4"/>
+      <c r="J711" s="4"/>
+      <c r="K711" s="4"/>
+      <c r="L711" s="4"/>
+      <c r="M711" s="4"/>
+      <c r="N711" s="4"/>
+      <c r="O711" s="4"/>
+      <c r="P711" s="4"/>
+      <c r="Q711" s="4"/>
+      <c r="R711" s="4"/>
+      <c r="S711" s="4"/>
+      <c r="T711" s="4"/>
+      <c r="U711" s="4"/>
+      <c r="V711" s="4"/>
+      <c r="W711" s="4"/>
+      <c r="X711" s="4"/>
+      <c r="Y711" s="4"/>
+      <c r="Z711" s="4"/>
+      <c r="AA711" s="4"/>
+      <c r="AB711" s="4"/>
+    </row>
+    <row r="712" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="4"/>
+      <c r="B712" s="5"/>
+      <c r="C712" s="4"/>
+      <c r="D712" s="4"/>
+      <c r="E712" s="4"/>
+      <c r="F712" s="4"/>
+      <c r="G712" s="4"/>
+      <c r="H712" s="4"/>
+      <c r="I712" s="4"/>
+      <c r="J712" s="4"/>
+      <c r="K712" s="4"/>
+      <c r="L712" s="4"/>
+      <c r="M712" s="4"/>
+      <c r="N712" s="4"/>
+      <c r="O712" s="4"/>
+      <c r="P712" s="4"/>
+      <c r="Q712" s="4"/>
+      <c r="R712" s="4"/>
+      <c r="S712" s="4"/>
+      <c r="T712" s="4"/>
+      <c r="U712" s="4"/>
+      <c r="V712" s="4"/>
+      <c r="W712" s="4"/>
+      <c r="X712" s="4"/>
+      <c r="Y712" s="4"/>
+      <c r="Z712" s="4"/>
+      <c r="AA712" s="4"/>
+      <c r="AB712" s="4"/>
+    </row>
+    <row r="713" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="4"/>
+      <c r="B713" s="5"/>
+      <c r="C713" s="4"/>
+      <c r="D713" s="4"/>
+      <c r="E713" s="4"/>
+      <c r="F713" s="4"/>
+      <c r="G713" s="4"/>
+      <c r="H713" s="4"/>
+      <c r="I713" s="4"/>
+      <c r="J713" s="4"/>
+      <c r="K713" s="4"/>
+      <c r="L713" s="4"/>
+      <c r="M713" s="4"/>
+      <c r="N713" s="4"/>
+      <c r="O713" s="4"/>
+      <c r="P713" s="4"/>
+      <c r="Q713" s="4"/>
+      <c r="R713" s="4"/>
+      <c r="S713" s="4"/>
+      <c r="T713" s="4"/>
+      <c r="U713" s="4"/>
+      <c r="V713" s="4"/>
+      <c r="W713" s="4"/>
+      <c r="X713" s="4"/>
+      <c r="Y713" s="4"/>
+      <c r="Z713" s="4"/>
+      <c r="AA713" s="4"/>
+      <c r="AB713" s="4"/>
+    </row>
+    <row r="714" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="4"/>
+      <c r="B714" s="5"/>
+      <c r="C714" s="4"/>
+      <c r="D714" s="4"/>
+      <c r="E714" s="4"/>
+      <c r="F714" s="4"/>
+      <c r="G714" s="4"/>
+      <c r="H714" s="4"/>
+      <c r="I714" s="4"/>
+      <c r="J714" s="4"/>
+      <c r="K714" s="4"/>
+      <c r="L714" s="4"/>
+      <c r="M714" s="4"/>
+      <c r="N714" s="4"/>
+      <c r="O714" s="4"/>
+      <c r="P714" s="4"/>
+      <c r="Q714" s="4"/>
+      <c r="R714" s="4"/>
+      <c r="S714" s="4"/>
+      <c r="T714" s="4"/>
+      <c r="U714" s="4"/>
+      <c r="V714" s="4"/>
+      <c r="W714" s="4"/>
+      <c r="X714" s="4"/>
+      <c r="Y714" s="4"/>
+      <c r="Z714" s="4"/>
+      <c r="AA714" s="4"/>
+      <c r="AB714" s="4"/>
+    </row>
+    <row r="715" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="4"/>
+      <c r="B715" s="5"/>
+      <c r="C715" s="4"/>
+      <c r="D715" s="4"/>
+      <c r="E715" s="4"/>
+      <c r="F715" s="4"/>
+      <c r="G715" s="4"/>
+      <c r="H715" s="4"/>
+      <c r="I715" s="4"/>
+      <c r="J715" s="4"/>
+      <c r="K715" s="4"/>
+      <c r="L715" s="4"/>
+      <c r="M715" s="4"/>
+      <c r="N715" s="4"/>
+      <c r="O715" s="4"/>
+      <c r="P715" s="4"/>
+      <c r="Q715" s="4"/>
+      <c r="R715" s="4"/>
+      <c r="S715" s="4"/>
+      <c r="T715" s="4"/>
+      <c r="U715" s="4"/>
+      <c r="V715" s="4"/>
+      <c r="W715" s="4"/>
+      <c r="X715" s="4"/>
+      <c r="Y715" s="4"/>
+      <c r="Z715" s="4"/>
+      <c r="AA715" s="4"/>
+      <c r="AB715" s="4"/>
+    </row>
+    <row r="716" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="4"/>
+      <c r="B716" s="5"/>
+      <c r="C716" s="4"/>
+      <c r="D716" s="4"/>
+      <c r="E716" s="4"/>
+      <c r="F716" s="4"/>
+      <c r="G716" s="4"/>
+      <c r="H716" s="4"/>
+      <c r="I716" s="4"/>
+      <c r="J716" s="4"/>
+      <c r="K716" s="4"/>
+      <c r="L716" s="4"/>
+      <c r="M716" s="4"/>
+      <c r="N716" s="4"/>
+      <c r="O716" s="4"/>
+      <c r="P716" s="4"/>
+      <c r="Q716" s="4"/>
+      <c r="R716" s="4"/>
+      <c r="S716" s="4"/>
+      <c r="T716" s="4"/>
+      <c r="U716" s="4"/>
+      <c r="V716" s="4"/>
+      <c r="W716" s="4"/>
+      <c r="X716" s="4"/>
+      <c r="Y716" s="4"/>
+      <c r="Z716" s="4"/>
+      <c r="AA716" s="4"/>
+      <c r="AB716" s="4"/>
+    </row>
+    <row r="717" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="4"/>
+      <c r="B717" s="5"/>
+      <c r="C717" s="4"/>
+      <c r="D717" s="4"/>
+      <c r="E717" s="4"/>
+      <c r="F717" s="4"/>
+      <c r="G717" s="4"/>
+      <c r="H717" s="4"/>
+      <c r="I717" s="4"/>
+      <c r="J717" s="4"/>
+      <c r="K717" s="4"/>
+      <c r="L717" s="4"/>
+      <c r="M717" s="4"/>
+      <c r="N717" s="4"/>
+      <c r="O717" s="4"/>
+      <c r="P717" s="4"/>
+      <c r="Q717" s="4"/>
+      <c r="R717" s="4"/>
+      <c r="S717" s="4"/>
+      <c r="T717" s="4"/>
+      <c r="U717" s="4"/>
+      <c r="V717" s="4"/>
+      <c r="W717" s="4"/>
+      <c r="X717" s="4"/>
+      <c r="Y717" s="4"/>
+      <c r="Z717" s="4"/>
+      <c r="AA717" s="4"/>
+      <c r="AB717" s="4"/>
+    </row>
+    <row r="718" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="4"/>
+      <c r="B718" s="5"/>
+      <c r="C718" s="4"/>
+      <c r="D718" s="4"/>
+      <c r="E718" s="4"/>
+      <c r="F718" s="4"/>
+      <c r="G718" s="4"/>
+      <c r="H718" s="4"/>
+      <c r="I718" s="4"/>
+      <c r="J718" s="4"/>
+      <c r="K718" s="4"/>
+      <c r="L718" s="4"/>
+      <c r="M718" s="4"/>
+      <c r="N718" s="4"/>
+      <c r="O718" s="4"/>
+      <c r="P718" s="4"/>
+      <c r="Q718" s="4"/>
+      <c r="R718" s="4"/>
+      <c r="S718" s="4"/>
+      <c r="T718" s="4"/>
+      <c r="U718" s="4"/>
+      <c r="V718" s="4"/>
+      <c r="W718" s="4"/>
+      <c r="X718" s="4"/>
+      <c r="Y718" s="4"/>
+      <c r="Z718" s="4"/>
+      <c r="AA718" s="4"/>
+      <c r="AB718" s="4"/>
+    </row>
+    <row r="719" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="4"/>
+      <c r="B719" s="5"/>
+      <c r="C719" s="4"/>
+      <c r="D719" s="4"/>
+      <c r="E719" s="4"/>
+      <c r="F719" s="4"/>
+      <c r="G719" s="4"/>
+      <c r="H719" s="4"/>
+      <c r="I719" s="4"/>
+      <c r="J719" s="4"/>
+      <c r="K719" s="4"/>
+      <c r="L719" s="4"/>
+      <c r="M719" s="4"/>
+      <c r="N719" s="4"/>
+      <c r="O719" s="4"/>
+      <c r="P719" s="4"/>
+      <c r="Q719" s="4"/>
+      <c r="R719" s="4"/>
+      <c r="S719" s="4"/>
+      <c r="T719" s="4"/>
+      <c r="U719" s="4"/>
+      <c r="V719" s="4"/>
+      <c r="W719" s="4"/>
+      <c r="X719" s="4"/>
+      <c r="Y719" s="4"/>
+      <c r="Z719" s="4"/>
+      <c r="AA719" s="4"/>
+      <c r="AB719" s="4"/>
+    </row>
+    <row r="720" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="4"/>
+      <c r="B720" s="5"/>
+      <c r="C720" s="4"/>
+      <c r="D720" s="4"/>
+      <c r="E720" s="4"/>
+      <c r="F720" s="4"/>
+      <c r="G720" s="4"/>
+      <c r="H720" s="4"/>
+      <c r="I720" s="4"/>
+      <c r="J720" s="4"/>
+      <c r="K720" s="4"/>
+      <c r="L720" s="4"/>
+      <c r="M720" s="4"/>
+      <c r="N720" s="4"/>
+      <c r="O720" s="4"/>
+      <c r="P720" s="4"/>
+      <c r="Q720" s="4"/>
+      <c r="R720" s="4"/>
+      <c r="S720" s="4"/>
+      <c r="T720" s="4"/>
+      <c r="U720" s="4"/>
+      <c r="V720" s="4"/>
+      <c r="W720" s="4"/>
+      <c r="X720" s="4"/>
+      <c r="Y720" s="4"/>
+      <c r="Z720" s="4"/>
+      <c r="AA720" s="4"/>
+      <c r="AB720" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7E125-D4B5-42F6-B14F-18D44BFDE9EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5C954-D585-4CFB-B296-3B6AECEA4412}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="406">
   <si>
     <t>Question</t>
   </si>
@@ -679,9 +679,6 @@
     <t>Охолодження ствола</t>
   </si>
   <si>
-    <t>З чого складаэться набой?</t>
-  </si>
-  <si>
     <t>Затвор</t>
   </si>
   <si>
@@ -994,9 +991,6 @@
     <t>Фіксацію магазину</t>
   </si>
   <si>
-    <t>Які дії виконує співробітник після команди «ПРИГОТУВАТИСЬ» з пістолетом?</t>
-  </si>
-  <si>
     <t>Вилучає пістолет з кобури</t>
   </si>
   <si>
@@ -1235,6 +1229,15 @@
   </si>
   <si>
     <t>Розібрати затворну групу</t>
+  </si>
+  <si>
+    <t>Cаундмодератори</t>
+  </si>
+  <si>
+    <t>З чого складається набой?</t>
+  </si>
+  <si>
+    <t>Які дії виконує співробітник після команди ПРИГОТУВАТИСЬ з пістолетом?</t>
   </si>
 </sst>
 </file>
@@ -1521,8 +1524,8 @@
   </sheetPr>
   <dimension ref="A1:AC720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2238,25 +2241,25 @@
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>108</v>
@@ -2726,7 +2729,7 @@
         <v>212</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>214</v>
@@ -2744,7 +2747,7 @@
         <v>214</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>9</v>
@@ -2793,37 +2796,37 @@
     </row>
     <row r="33" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="O33" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="Q33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>9</v>
@@ -2834,34 +2837,34 @@
     </row>
     <row r="34" spans="2:28" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>183</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>185</v>
       </c>
       <c r="O34" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P34" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>9</v>
@@ -2872,34 +2875,34 @@
     </row>
     <row r="35" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="O35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="P35" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="Q35" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>9</v>
@@ -2910,34 +2913,34 @@
     </row>
     <row r="36" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="O36" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P36" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="Q36" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="R36" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>9</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="37" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>213</v>
@@ -2957,22 +2960,22 @@
         <v>210</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>211</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>211</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>9</v>
@@ -2983,31 +2986,31 @@
     </row>
     <row r="38" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="G38" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>9</v>
@@ -3018,10 +3021,10 @@
     </row>
     <row r="39" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>215</v>
@@ -3030,25 +3033,25 @@
         <v>212</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>213</v>
       </c>
       <c r="O39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="R39" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA39" s="4" t="s">
         <v>99</v>
@@ -3059,25 +3062,25 @@
     </row>
     <row r="40" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="O40" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>108</v>
@@ -3088,25 +3091,25 @@
     </row>
     <row r="41" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="O41" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA41" s="4" t="s">
         <v>108</v>
@@ -3117,25 +3120,25 @@
     </row>
     <row r="42" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="O42" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA42" s="4" t="s">
         <v>108</v>
@@ -3146,25 +3149,25 @@
     </row>
     <row r="43" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="O43" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>108</v>
@@ -3175,25 +3178,25 @@
     </row>
     <row r="44" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="O44" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>108</v>
@@ -3204,25 +3207,25 @@
     </row>
     <row r="45" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>108</v>
@@ -3233,25 +3236,25 @@
     </row>
     <row r="46" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="O46" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>108</v>
@@ -3262,25 +3265,25 @@
     </row>
     <row r="47" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="O47" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>108</v>
@@ -3291,25 +3294,25 @@
     </row>
     <row r="48" spans="2:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="O48" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>108</v>
@@ -3320,25 +3323,25 @@
     </row>
     <row r="49" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="O49" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>108</v>
@@ -3349,25 +3352,25 @@
     </row>
     <row r="50" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="O50" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>108</v>
@@ -3376,27 +3379,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>181</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>108</v>
@@ -3405,39 +3408,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="O52" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q52" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="R52" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>9</v>
@@ -3448,37 +3451,37 @@
     </row>
     <row r="53" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="O53" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q53" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>9</v>
@@ -3489,37 +3492,37 @@
     </row>
     <row r="54" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="O54" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q54" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="R54" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="AA54" s="4" t="s">
         <v>9</v>
@@ -3530,37 +3533,37 @@
     </row>
     <row r="55" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="P55" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="S55" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="S55" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="AA55" s="4" t="s">
         <v>99</v>
@@ -3571,37 +3574,37 @@
     </row>
     <row r="56" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="O56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="P56" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q56" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="AA56" s="4" t="s">
         <v>99</v>
@@ -3612,37 +3615,37 @@
     </row>
     <row r="57" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="O57" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="P57" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="R57" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="AA57" s="4" t="s">
         <v>99</v>
@@ -3653,37 +3656,37 @@
     </row>
     <row r="58" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O58" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="O58" s="4" t="s">
+      <c r="P58" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="Q58" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="R58" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="R58" s="4" t="s">
+      <c r="S58" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="AA58" s="4" t="s">
         <v>99</v>
@@ -3694,40 +3697,40 @@
     </row>
     <row r="59" spans="1:28" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="O59" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AB59" s="4">
         <v>3</v>
@@ -3735,43 +3738,43 @@
     </row>
     <row r="60" spans="1:28" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="E60" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>182</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R60" s="4" t="s">
         <v>182</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA60" s="4" t="s">
         <v>15</v>
@@ -3782,37 +3785,37 @@
     </row>
     <row r="61" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="E61" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="S61" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="S61" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="AA61" s="4" t="s">
         <v>15</v>
@@ -3823,37 +3826,37 @@
     </row>
     <row r="62" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AA62" s="4" t="s">
         <v>15</v>
@@ -3865,22 +3868,22 @@
     <row r="63" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3896,13 +3899,13 @@
         <v>91</v>
       </c>
       <c r="Q63" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="S63" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
@@ -4028,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>96</v>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5C954-D585-4CFB-B296-3B6AECEA4412}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AADB1-0E89-4EE5-B846-FD7BCF3CBD54}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,8 +1524,8 @@
   </sheetPr>
   <dimension ref="A1:AC720"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="T55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>312</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>365</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>384</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>385</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>389</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>92</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>401</v>
+        <v>91</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>401</v>
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>96</v>

--- a/questions1.xlsx
+++ b/questions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AADB1-0E89-4EE5-B846-FD7BCF3CBD54}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1687AD-C2AE-45FD-855F-084EDEA86967}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,14 +1524,14 @@
   </sheetPr>
   <dimension ref="A1:AC720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="2"/>
-    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
@@ -1637,7 +1637,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="3" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>81</v>
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>30</v>
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>35</v>
@@ -1788,7 +1788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>59</v>
@@ -2066,7 +2066,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>109</v>
@@ -2115,7 +2115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>110</v>
@@ -2164,7 +2164,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>64</v>
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>115</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>391</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>121</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:28" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" s="4" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>127</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>133</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>174</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>180</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>186</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>202</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>209</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>404</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>398</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>264</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>266</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>278</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:28" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>289</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:28" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>295</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>299</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>306</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>312</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>318</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>405</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>335</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>340</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>347</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>355</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>365</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>384</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>379</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>385</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="4" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>389</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>399</v>
@@ -3981,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>114</v>
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="201" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>96</v>
